--- a/LIHKG/20230111/LIHKG_Thread_Log.xlsx
+++ b/LIHKG/20230111/LIHKG_Thread_Log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="306">
   <si>
     <t>Thread UID (PK)</t>
   </si>
@@ -46,199 +46,199 @@
     <t>Last Fetch Comment Floor Number</t>
   </si>
   <si>
-    <t>LI-20230110-232042066087-瀧野由美仔-2023-1-5 22:38:13</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-格林斯潘-2023-1-5 22:19:37</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-只嫁紀律部隊-2023-1-5 14:48:32</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-3noirvexa老師-2023-1-5 12:27:48</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-王頌茵-2023-1-3 05:46:42</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-東升西降@呂布-2023-1-2 14:57:27</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-馬里蘭樂園田泰安-2022-12-29 20:08:21</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-能大SU主席-2022-12-23 16:21:01</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-須賀悠衣-2022-12-17 15:41:59</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-保衛警犬運動-2022-12-12 23:51:17</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-點點點-2022-12-12 15:07:01</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-GME散戶（暴發）-2022-12-9 09:37:13</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-茉莉花園-2022-12-8 22:55:23</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-一蓑煙雨-2022-12-8 22:23:41</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-習慣咗就冇事-2022-12-8 22:03:18</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-芝麻仁冇蘑菇-2022-12-8 18:40:32</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-笑聲笑聲冚家拎-2022-12-8 13:22:09</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-爆炸-2022-12-8 12:26:50</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-須賀悠衣-2022-12-8 11:25:28</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-蓋世寶掉老母-2022-12-8 08:57:59</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-有村架純bb豬-2022-12-8 08:32:58</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-想點姐你打我牙笨-2022-12-8 06:43:17</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-毒菇天下-2022-12-7 23:50:26</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-藍色幽默-2022-12-7 23:39:23</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-一蓑煙雨-2022-12-7 23:19:28</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-天狼星A-2022-12-7 23:11:55</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-鹿特丹斯巴光年-2022-12-7 22:47:10</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-蓋世寶掉老母-2022-12-7 22:41:24</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-有冇人打波-2022-12-7 21:51:32</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-唔好搞我喇-2022-12-7 21:02:32</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-夢見-2022-12-7 19:32:33</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-安社長-2022-12-7 17:23:34</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-有妖氣-2022-12-7 15:12:21</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-科興揸弗人-2022-12-7 14:52:32</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-拉馬師潘頓-2022-12-7 14:17:20</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-數據難民-2022-12-7 13:40:57</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-異國喬-2022-12-6 23:09:28</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-阿李蝦蝦-2022-12-6 22:22:40</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-milet老公仔-2022-12-6 19:05:35</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-BenC世一！！-2022-12-6 18:59:42</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-10676呂布(PTSD)-2022-12-5 20:14:00</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-漢語字庫-2022-12-4 12:47:53</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-武漢居民-2022-12-2 22:53:02</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-仁賤聖敢油麥菜-2022-12-2 19:54:56</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-是但啦個名-2022-12-2 00:56:31</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-巴黎魚-2022-11-24 09:13:03</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-滕禁肛-2022-11-21 21:27:58</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-小鳥篤魚旦-2022-11-17 16:39:25</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-瀟灑不J-2022-11-14 11:29:30</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-蓋世寶掉老母-2022-11-8 11:54:04</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-冷泡茶-2022-11-5 10:03:25</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-老貓再世_-2022-11-3 17:29:55</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-好人改名好好玩-2022-11-3 02:13:22</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-蓋世寶掉老母-2022-11-2 21:07:03</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-鄧奕謙-2022-11-1 22:56:45</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-賤螂礙交-2022-11-1 19:52:48</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-揭麼滋-2022-10-28 14:38:45</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-唔知你點呢-2022-10-27 18:23:34</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-牧師-2022-10-20 07:56:13</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-胃仔-2022-10-11 19:52:01</t>
-  </si>
-  <si>
-    <t>LI-20230110-232907058447-囝細老婆嫩-2022-12-7 22:45:04</t>
-  </si>
-  <si>
-    <t>LI-20230110-232907058447-神宮寺-2022-12-6 21:04:25</t>
-  </si>
-  <si>
-    <t>LI-20230110-232907058447-納米屌洗衣液-2022-10-11 11:59:24</t>
-  </si>
-  <si>
-    <t>LI-20230110-233246137217-格林斯潘-2023-1-5 22:19:37</t>
-  </si>
-  <si>
-    <t>LI-20230110-233246137217-馬里蘭樂園田泰安-2022-12-29 20:08:21</t>
+    <t>LI-20230111-121311390935-瀧野由美仔-2023-1-5 22:38:13</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-格林斯潘-2023-1-5 22:19:37</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-只嫁紀律部隊-2023-1-5 14:48:32</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-3noirvexa老師-2023-1-5 12:27:48</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-王頌茵-2023-1-3 05:46:42</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-東升西降@呂布-2023-1-2 14:57:27</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-馬里蘭樂園田泰安-2022-12-29 20:08:21</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-能大SU主席-2022-12-23 16:21:01</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-須賀悠衣-2022-12-17 15:41:59</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-保衛警犬運動-2022-12-12 23:51:17</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-點點點-2022-12-12 15:07:01</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-GME散戶（暴發）-2022-12-9 09:37:13</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-茉莉花園-2022-12-8 22:55:23</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-一蓑煙雨-2022-12-8 22:23:41</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-習慣咗就冇事-2022-12-8 22:03:18</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-芝麻仁冇蘑菇-2022-12-8 18:40:32</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-笑聲笑聲冚家拎-2022-12-8 13:22:09</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-爆炸-2022-12-8 12:26:50</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-須賀悠衣-2022-12-8 11:25:28</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-蓋世寶掉老母-2022-12-8 08:57:59</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-有村架純bb豬-2022-12-8 08:32:58</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-想點姐你打我牙笨-2022-12-8 06:43:17</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-毒菇天下-2022-12-7 23:50:26</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-藍色幽默-2022-12-7 23:39:23</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-一蓑煙雨-2022-12-7 23:19:28</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-天狼星A-2022-12-7 23:11:55</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-鹿特丹斯巴光年-2022-12-7 22:47:10</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-蓋世寶掉老母-2022-12-7 22:41:24</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-有冇人打波-2022-12-7 21:51:32</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-唔好搞我喇-2022-12-7 21:02:32</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-夢見-2022-12-7 19:32:33</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-安社長-2022-12-7 17:23:34</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-有妖氣-2022-12-7 15:12:21</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-科興揸弗人-2022-12-7 14:52:32</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-拉馬師潘頓-2022-12-7 14:17:20</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-數據難民-2022-12-7 13:40:57</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-異國喬-2022-12-6 23:09:28</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-阿李蝦蝦-2022-12-6 22:22:40</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-milet老公仔-2022-12-6 19:05:35</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-BenC世一！！-2022-12-6 18:59:42</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-10676呂布(PTSD)-2022-12-5 20:14:00</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-漢語字庫-2022-12-4 12:47:53</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-武漢居民-2022-12-2 22:53:02</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-仁賤聖敢油麥菜-2022-12-2 22:53:02</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-是但啦個名-2022-12-2 00:56:31</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-巴黎魚-2022-11-24 09:13:03</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-滕禁肛-2022-11-21 21:27:58</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-小鳥篤魚旦-2022-11-17 16:39:25</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-瀟灑不J-2022-11-14 11:29:30</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-蓋世寶掉老母-2022-11-8 11:54:04</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-冷泡茶-2022-11-5 10:03:25</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-老貓再世_-2022-11-3 17:29:55</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-好人改名好好玩-2022-11-3 02:13:22</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-蓋世寶掉老母-2022-11-2 21:07:03</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-鄧奕謙-2022-11-1 22:56:45</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-賤螂礙交-2022-11-1 19:52:48</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-揭麼滋-2022-10-28 14:38:45</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-唔知你點呢-2022-10-27 18:23:34</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-牧師-2022-10-20 07:56:13</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-胃仔-2022-10-11 19:52:01</t>
+  </si>
+  <si>
+    <t>LI-20230111-122035944677-囝細老婆嫩-2022-12-7 22:45:04</t>
+  </si>
+  <si>
+    <t>LI-20230111-122035944677-神宮寺-2022-12-6 21:04:25</t>
+  </si>
+  <si>
+    <t>LI-20230111-122035944677-納米屌洗衣液-2022-10-11 11:59:24</t>
+  </si>
+  <si>
+    <t>LI-20230111-122424919176-格林斯潘-2023-1-5 22:19:37</t>
+  </si>
+  <si>
+    <t>LI-20230111-122424919176-馬里蘭樂園田泰安-2022-12-29 20:08:21</t>
   </si>
   <si>
     <t>渣打</t>
@@ -382,9 +382,6 @@
     <t>2022-12-2 22:53:02</t>
   </si>
   <si>
-    <t>2022-12-2 19:54:56</t>
-  </si>
-  <si>
     <t>2022-12-2 00:56:31</t>
   </si>
   <si>
@@ -841,55 +838,55 @@
     <t>#13</t>
   </si>
   <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#27</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>#41</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#34</t>
+  </si>
+  <si>
+    <t>#282</t>
+  </si>
+  <si>
+    <t>#16</t>
+  </si>
+  <si>
+    <t>#30</t>
+  </si>
+  <si>
+    <t>#14</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#26</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
     <t>#9</t>
-  </si>
-  <si>
-    <t>#5</t>
-  </si>
-  <si>
-    <t>#27</t>
-  </si>
-  <si>
-    <t>#10</t>
-  </si>
-  <si>
-    <t>#41</t>
-  </si>
-  <si>
-    <t>#2</t>
-  </si>
-  <si>
-    <t>#34</t>
-  </si>
-  <si>
-    <t>#282</t>
-  </si>
-  <si>
-    <t>#16</t>
-  </si>
-  <si>
-    <t>#30</t>
-  </si>
-  <si>
-    <t>#14</t>
-  </si>
-  <si>
-    <t>#1</t>
-  </si>
-  <si>
-    <t>#26</t>
-  </si>
-  <si>
-    <t>#4</t>
-  </si>
-  <si>
-    <t>#3</t>
-  </si>
-  <si>
-    <t>#8</t>
-  </si>
-  <si>
-    <t>#6</t>
   </si>
   <si>
     <t>#91</t>
@@ -1292,7 +1289,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1344,13 +1341,13 @@
         <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -1359,7 +1356,7 @@
         <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1376,13 +1373,13 @@
         <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -1391,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1408,22 +1405,22 @@
         <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1440,13 +1437,13 @@
         <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1455,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1472,13 +1469,13 @@
         <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1487,7 +1484,7 @@
         <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1504,13 +1501,13 @@
         <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -1519,7 +1516,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1536,13 +1533,13 @@
         <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H8">
         <v>13</v>
@@ -1551,7 +1548,7 @@
         <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1568,13 +1565,13 @@
         <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1583,12 +1580,12 @@
         <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
@@ -1597,7 +1594,7 @@
         <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
         <v>149</v>
@@ -1606,21 +1603,21 @@
         <v>207</v>
       </c>
       <c r="G10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>75</v>
@@ -1629,7 +1626,7 @@
         <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
         <v>150</v>
@@ -1638,21 +1635,21 @@
         <v>208</v>
       </c>
       <c r="G11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>75</v>
@@ -1661,7 +1658,7 @@
         <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
         <v>151</v>
@@ -1670,21 +1667,21 @@
         <v>209</v>
       </c>
       <c r="G12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>75</v>
@@ -1693,7 +1690,7 @@
         <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
         <v>152</v>
@@ -1702,21 +1699,21 @@
         <v>210</v>
       </c>
       <c r="G13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>680</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>75</v>
@@ -1725,7 +1722,7 @@
         <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
         <v>153</v>
@@ -1734,21 +1731,21 @@
         <v>211</v>
       </c>
       <c r="G14" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H14">
-        <v>680</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="J14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>75</v>
@@ -1757,7 +1754,7 @@
         <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
         <v>154</v>
@@ -1766,21 +1763,21 @@
         <v>212</v>
       </c>
       <c r="G15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>75</v>
@@ -1789,7 +1786,7 @@
         <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
         <v>155</v>
@@ -1798,21 +1795,21 @@
         <v>213</v>
       </c>
       <c r="G16" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>75</v>
@@ -1821,7 +1818,7 @@
         <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
         <v>156</v>
@@ -1830,21 +1827,21 @@
         <v>214</v>
       </c>
       <c r="G17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>75</v>
@@ -1853,22 +1850,22 @@
         <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="J18" t="s">
         <v>285</v>
@@ -1876,7 +1873,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>75</v>
@@ -1885,22 +1882,22 @@
         <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>286</v>
@@ -1908,7 +1905,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>75</v>
@@ -1917,22 +1914,22 @@
         <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G20" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="J20" t="s">
         <v>287</v>
@@ -1940,7 +1937,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>75</v>
@@ -1949,13 +1946,13 @@
         <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
         <v>159</v>
       </c>
       <c r="F21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G21" t="s">
         <v>265</v>
@@ -1964,15 +1961,15 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>75</v>
@@ -1981,30 +1978,30 @@
         <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G22" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>75</v>
@@ -2013,30 +2010,30 @@
         <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J23" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>75</v>
@@ -2045,30 +2042,30 @@
         <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>75</v>
@@ -2077,30 +2074,30 @@
         <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G25" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J25" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>75</v>
@@ -2109,13 +2106,13 @@
         <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F26" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G26" t="s">
         <v>265</v>
@@ -2124,15 +2121,15 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>75</v>
@@ -2141,30 +2138,30 @@
         <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F27" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>75</v>
@@ -2173,30 +2170,30 @@
         <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G28" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J28" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>75</v>
@@ -2205,16 +2202,16 @@
         <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G29" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2223,12 +2220,12 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>75</v>
@@ -2237,30 +2234,30 @@
         <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G30" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J30" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>75</v>
@@ -2269,30 +2266,30 @@
         <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F31" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G31" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>75</v>
@@ -2301,30 +2298,30 @@
         <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F32" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>826</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J32" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
         <v>75</v>
@@ -2333,30 +2330,30 @@
         <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F33" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G33" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H33">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
         <v>75</v>
@@ -2365,30 +2362,30 @@
         <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E34" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F34" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G34" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H34">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
         <v>75</v>
@@ -2397,30 +2394,30 @@
         <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E35" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F35" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="G35" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
         <v>75</v>
@@ -2429,22 +2426,22 @@
         <v>78</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E36" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F36" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G36" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H36">
-        <v>826</v>
+        <v>6</v>
       </c>
       <c r="I36">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
         <v>294</v>
@@ -2452,7 +2449,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
         <v>75</v>
@@ -2461,30 +2458,30 @@
         <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F37" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G37" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J37" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
@@ -2493,30 +2490,30 @@
         <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F38" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H38">
         <v>3</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
         <v>75</v>
@@ -2525,30 +2522,30 @@
         <v>78</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E39" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F39" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="G39" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
         <v>75</v>
@@ -2557,30 +2554,30 @@
         <v>78</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E40" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F40" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G40" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
         <v>75</v>
@@ -2589,30 +2586,30 @@
         <v>78</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E41" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F41" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H41">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="J41" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
         <v>75</v>
@@ -2621,30 +2618,30 @@
         <v>78</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E42" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F42" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H42">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
         <v>75</v>
@@ -2653,30 +2650,30 @@
         <v>78</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F43" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G43" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
         <v>75</v>
@@ -2685,30 +2682,30 @@
         <v>78</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E44" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F44" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H44">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
         <v>75</v>
@@ -2717,16 +2714,16 @@
         <v>78</v>
       </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E45" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F45" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2735,12 +2732,12 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
         <v>75</v>
@@ -2749,30 +2746,30 @@
         <v>78</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E46" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F46" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G46" t="s">
         <v>263</v>
       </c>
       <c r="H46">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
         <v>75</v>
@@ -2781,30 +2778,30 @@
         <v>78</v>
       </c>
       <c r="D47" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E47" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F47" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G47" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
         <v>75</v>
@@ -2813,30 +2810,30 @@
         <v>78</v>
       </c>
       <c r="D48" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E48" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F48" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G48" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J48" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
         <v>75</v>
@@ -2845,30 +2842,30 @@
         <v>78</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E49" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F49" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G49" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
         <v>75</v>
@@ -2877,16 +2874,16 @@
         <v>78</v>
       </c>
       <c r="D50" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E50" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F50" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G50" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2895,12 +2892,12 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
         <v>75</v>
@@ -2909,30 +2906,30 @@
         <v>78</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E51" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="F51" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G51" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
         <v>75</v>
@@ -2941,30 +2938,30 @@
         <v>78</v>
       </c>
       <c r="D52" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E52" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F52" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G52" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
         <v>75</v>
@@ -2973,30 +2970,30 @@
         <v>78</v>
       </c>
       <c r="D53" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E53" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F53" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G53" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J53" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
         <v>75</v>
@@ -3005,30 +3002,30 @@
         <v>78</v>
       </c>
       <c r="D54" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E54" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F54" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G54" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="H54">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>5</v>
       </c>
       <c r="J54" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
         <v>75</v>
@@ -3037,30 +3034,30 @@
         <v>78</v>
       </c>
       <c r="D55" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E55" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="F55" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G55" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
         <v>75</v>
@@ -3069,22 +3066,22 @@
         <v>78</v>
       </c>
       <c r="D56" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E56" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F56" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G56" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J56" t="s">
         <v>300</v>
@@ -3092,7 +3089,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
         <v>75</v>
@@ -3101,30 +3098,30 @@
         <v>78</v>
       </c>
       <c r="D57" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E57" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="F57" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
         <v>75</v>
@@ -3133,30 +3130,30 @@
         <v>78</v>
       </c>
       <c r="D58" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E58" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="F58" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G58" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
         <v>75</v>
@@ -3165,30 +3162,30 @@
         <v>78</v>
       </c>
       <c r="D59" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E59" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F59" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="G59" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J59" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
         <v>75</v>
@@ -3197,30 +3194,30 @@
         <v>78</v>
       </c>
       <c r="D60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E60" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F60" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G60" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>246</v>
       </c>
       <c r="I60">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J60" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
         <v>75</v>
@@ -3229,441 +3226,185 @@
         <v>78</v>
       </c>
       <c r="D61" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E61" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F61" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G61" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C62" t="s">
         <v>78</v>
       </c>
       <c r="D62" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E62" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="F62" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G62" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C63" t="s">
         <v>78</v>
       </c>
       <c r="D63" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E63" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F63" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G63" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H63">
-        <v>184</v>
+        <v>33</v>
       </c>
       <c r="I63">
-        <v>38</v>
+        <v>465</v>
       </c>
       <c r="J63" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C64" t="s">
         <v>78</v>
       </c>
       <c r="D64" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E64" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F64" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G64" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1055</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J64" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C65" t="s">
         <v>78</v>
       </c>
       <c r="D65" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E65" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="F65" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="G65" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C66" t="s">
         <v>78</v>
       </c>
       <c r="D66" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="E66" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="F66" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="G66" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J66" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" t="s">
-        <v>78</v>
-      </c>
-      <c r="D67" t="s">
-        <v>136</v>
-      </c>
-      <c r="E67" t="s">
-        <v>194</v>
-      </c>
-      <c r="F67" t="s">
-        <v>256</v>
-      </c>
-      <c r="G67" t="s">
-        <v>266</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67">
-        <v>4</v>
-      </c>
-      <c r="J67" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" t="s">
-        <v>78</v>
-      </c>
-      <c r="D68" t="s">
-        <v>137</v>
-      </c>
-      <c r="E68" t="s">
-        <v>195</v>
-      </c>
-      <c r="F68" t="s">
-        <v>257</v>
-      </c>
-      <c r="G68" t="s">
-        <v>271</v>
-      </c>
-      <c r="H68">
-        <v>246</v>
-      </c>
-      <c r="I68">
-        <v>34</v>
-      </c>
-      <c r="J68" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" t="s">
-        <v>78</v>
-      </c>
-      <c r="D69" t="s">
-        <v>138</v>
-      </c>
-      <c r="E69" t="s">
-        <v>196</v>
-      </c>
-      <c r="F69" t="s">
-        <v>258</v>
-      </c>
-      <c r="G69" t="s">
-        <v>264</v>
-      </c>
-      <c r="H69">
-        <v>4</v>
-      </c>
-      <c r="I69">
-        <v>3</v>
-      </c>
-      <c r="J69" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70" t="s">
-        <v>78</v>
-      </c>
-      <c r="D70" t="s">
-        <v>139</v>
-      </c>
-      <c r="E70" t="s">
-        <v>197</v>
-      </c>
-      <c r="F70" t="s">
-        <v>259</v>
-      </c>
-      <c r="G70" t="s">
-        <v>265</v>
-      </c>
-      <c r="H70">
-        <v>2</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" t="s">
-        <v>76</v>
-      </c>
-      <c r="C71" t="s">
-        <v>78</v>
-      </c>
-      <c r="D71" t="s">
-        <v>140</v>
-      </c>
-      <c r="E71" t="s">
-        <v>198</v>
-      </c>
-      <c r="F71" t="s">
-        <v>260</v>
-      </c>
-      <c r="G71" t="s">
-        <v>263</v>
-      </c>
-      <c r="H71">
-        <v>33</v>
-      </c>
-      <c r="I71">
-        <v>465</v>
-      </c>
-      <c r="J71" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" t="s">
-        <v>76</v>
-      </c>
-      <c r="C72" t="s">
-        <v>78</v>
-      </c>
-      <c r="D72" t="s">
-        <v>141</v>
-      </c>
-      <c r="E72" t="s">
-        <v>199</v>
-      </c>
-      <c r="F72" t="s">
-        <v>261</v>
-      </c>
-      <c r="G72" t="s">
-        <v>263</v>
-      </c>
-      <c r="H72">
-        <v>1055</v>
-      </c>
-      <c r="I72">
-        <v>11</v>
-      </c>
-      <c r="J72" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" t="s">
-        <v>78</v>
-      </c>
-      <c r="D73" t="s">
-        <v>80</v>
-      </c>
-      <c r="E73" t="s">
-        <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>201</v>
-      </c>
-      <c r="G73" t="s">
-        <v>263</v>
-      </c>
-      <c r="H73">
-        <v>5</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-      <c r="J73" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74" t="s">
-        <v>85</v>
-      </c>
-      <c r="E74" t="s">
-        <v>148</v>
-      </c>
-      <c r="F74" t="s">
-        <v>206</v>
-      </c>
-      <c r="G74" t="s">
-        <v>265</v>
-      </c>
-      <c r="H74">
-        <v>13</v>
-      </c>
-      <c r="I74">
-        <v>5</v>
-      </c>
-      <c r="J74" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
